--- a/04-Study_one/04-Data_Analysis/questionnaire/awareness.xlsx
+++ b/04-Study_one/04-Data_Analysis/questionnaire/awareness.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/04-Study_one/Data Analysis/questionnaire/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/04-Study_one/04-Data_Analysis/questionnaire/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18200" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25080" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,20 +124,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -145,6 +160,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Element" dataDxfId="2"/>
+    <tableColumn id="2" name="Definition" dataDxfId="1"/>
+    <tableColumn id="3" name="Example" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,83 +439,88 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>